--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Haas F1 Team</t>
   </si>
@@ -96,15 +96,6 @@
     <t>Driver</t>
   </si>
   <si>
-    <t>Max Driver Cost</t>
-  </si>
-  <si>
-    <t>Max Car Cost</t>
-  </si>
-  <si>
-    <t>Max Engine Cost</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -151,6 +142,9 @@
   </si>
   <si>
     <t>Honda</t>
+  </si>
+  <si>
+    <t>Best Theoretical Team Last Year Points</t>
   </si>
 </sst>
 </file>
@@ -158,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,16 +191,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,58 +504,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -569,25 +566,27 @@
       <c r="C3">
         <v>12040</v>
       </c>
-      <c r="D3" s="4">
-        <f>C3/$C$3*$C$26</f>
-        <v>40</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="5">
+        <f>C3/$C$26%</f>
+        <v>37.865207409504038</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5">
         <v>10802</v>
       </c>
-      <c r="I3" s="4">
-        <f>H3/$H$3*$C$27</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <f>I3/$C$26%</f>
+        <v>33.971758341981946</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -597,25 +596,27 @@
       <c r="C4">
         <v>11302</v>
       </c>
-      <c r="D4" s="4">
-        <f>C4/$C$3*$C$26</f>
-        <v>37.548172757475086</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D24" si="0">C4/$C$26%</f>
+        <v>35.544233732742079</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5">
         <v>7242</v>
       </c>
-      <c r="I4" s="4">
-        <f>H4/$H$3*$C$27</f>
-        <v>23.46509905573042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J13" si="1">I4/$C$26%</f>
+        <v>22.775733559769787</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -625,25 +626,27 @@
       <c r="C5">
         <v>8302</v>
       </c>
-      <c r="D5" s="4">
-        <f>C5/$C$3*$C$26</f>
-        <v>27.581395348837209</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>26.109381388181273</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5">
         <v>6302</v>
       </c>
-      <c r="I5" s="4">
-        <f>H5/$H$3*$C$27</f>
-        <v>20.419366783928904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>19.819479825140736</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -653,25 +656,27 @@
       <c r="C6">
         <v>6962</v>
       </c>
-      <c r="D6" s="4">
-        <f>C6/$C$3*$C$26</f>
-        <v>23.129568106312291</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>21.895147340944114</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5">
         <v>4818</v>
       </c>
-      <c r="I6" s="4">
-        <f>H6/$H$3*$C$27</f>
-        <v>15.610997963340122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.152372865364656</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -681,25 +686,27 @@
       <c r="C7">
         <v>6796</v>
       </c>
-      <c r="D7" s="4">
-        <f>C7/$C$3*$C$26</f>
-        <v>22.578073089701</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>21.373085511211748</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5">
         <v>4542</v>
       </c>
-      <c r="I7" s="4">
-        <f>H7/$H$3*$C$27</f>
-        <v>14.716719126087762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>14.284366449665061</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -709,25 +716,27 @@
       <c r="C8">
         <v>6354</v>
       </c>
-      <c r="D8" s="4">
-        <f>C8/$C$3*$C$26</f>
-        <v>21.109634551495017</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>19.98301726577979</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5">
         <v>3546</v>
       </c>
-      <c r="I8" s="4">
-        <f>H8/$H$3*$C$27</f>
-        <v>11.489538974264024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>11.151995471270874</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -737,25 +746,27 @@
       <c r="C9">
         <v>5072</v>
       </c>
-      <c r="D9" s="4">
-        <f>C9/$C$3*$C$26</f>
-        <v>16.85049833887043</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>15.951190363870804</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="5">
         <v>3514</v>
       </c>
-      <c r="I9" s="4">
-        <f>H9/$H$3*$C$27</f>
-        <v>11.385854471394186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>11.051357046262225</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -765,25 +776,27 @@
       <c r="C10">
         <v>4740</v>
       </c>
-      <c r="D10" s="4">
-        <f>C10/$C$3*$C$26</f>
-        <v>15.747508305647841</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>14.907066704406075</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="5">
         <v>3186</v>
       </c>
-      <c r="I10" s="4">
-        <f>H10/$H$3*$C$27</f>
-        <v>10.323088316978337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>10.019813189923577</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -793,25 +806,27 @@
       <c r="C11">
         <v>4216</v>
       </c>
-      <c r="D11" s="4">
-        <f>C11/$C$3*$C$26</f>
-        <v>14.006644518272424</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>13.259112494889454</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="5">
         <v>2598</v>
       </c>
-      <c r="I11" s="4">
-        <f>H11/$H$3*$C$27</f>
-        <v>8.4178855767450482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1705821303896595</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -821,25 +836,27 @@
       <c r="C12">
         <v>3964</v>
       </c>
-      <c r="D12" s="4">
-        <f>C12/$C$3*$C$26</f>
-        <v>13.169435215946843</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>12.466584897946346</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="5">
         <v>2438</v>
       </c>
-      <c r="I12" s="4">
-        <f>H12/$H$3*$C$27</f>
-        <v>7.8994630623958519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>7.6673900053464159</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -849,25 +866,27 @@
       <c r="C13">
         <v>3810</v>
       </c>
-      <c r="D13" s="4">
-        <f>C13/$C$3*$C$26</f>
-        <v>12.657807308970099</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>11.982262477592224</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="G13">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5">
         <v>2242</v>
       </c>
-      <c r="I13" s="4">
-        <f>H13/$H$3*$C$27</f>
-        <v>7.264395482318089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0509796521684427</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -877,13 +896,14 @@
       <c r="C14">
         <v>3644</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14/$C$3*$C$26</f>
-        <v>12.106312292358803</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>11.46020064785986</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -893,13 +913,14 @@
       <c r="C15">
         <v>3126</v>
       </c>
-      <c r="D15" s="4">
-        <f>C15/$C$3*$C$26</f>
-        <v>10.385382059800666</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8311161430323608</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -909,18 +930,19 @@
       <c r="C16">
         <v>3092</v>
       </c>
-      <c r="D16" s="4">
-        <f>C16/$C$3*$C$26</f>
-        <v>10.272425249169434</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>9.7241878164606721</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -930,53 +952,57 @@
       <c r="C17">
         <v>3052</v>
       </c>
-      <c r="D17" s="4">
-        <f>C17/$C$3*$C$26</f>
-        <v>10.13953488372093</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5983897851998616</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5">
         <v>9552</v>
       </c>
-      <c r="I17" s="4">
-        <f>H17/$H$3*$C$28</f>
-        <v>26.528420662840215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5">
+        <f t="shared" ref="J17:J20" si="2">I17/$C$26%</f>
+        <v>30.040569865081608</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>2736</v>
       </c>
-      <c r="D18" s="4">
-        <f>C18/$C$3*$C$26</f>
-        <v>9.0897009966777418</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>8.6045853382394561</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="5">
         <v>6420</v>
       </c>
-      <c r="I18" s="4">
-        <f>H18/$H$3*$C$28</f>
-        <v>17.830031475652657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>20.190584017360127</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -986,25 +1012,27 @@
       <c r="C19">
         <v>2500</v>
       </c>
-      <c r="D19" s="4">
-        <f>C19/$C$3*$C$26</f>
-        <v>8.3056478405315612</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8623769538006725</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5">
         <v>4170</v>
       </c>
-      <c r="I19" s="4">
-        <f>H19/$H$3*$C$28</f>
-        <v>11.581188668765042</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>13.114444758939522</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1014,25 +1042,27 @@
       <c r="C20">
         <v>2196</v>
       </c>
-      <c r="D20" s="4">
-        <f>C20/$C$3*$C$26</f>
-        <v>7.2956810631229239</v>
-      </c>
-      <c r="F20">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9063119162185105</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="5">
         <v>1473</v>
       </c>
-      <c r="I20" s="4">
-        <f>H20/$H$3*$C$28</f>
-        <v>4.0909090909090908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>4.632512501179356</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1042,29 +1072,35 @@
       <c r="C21">
         <v>2132</v>
       </c>
-      <c r="D21" s="4">
-        <f>C21/$C$3*$C$26</f>
-        <v>7.0830564784053154</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>6.705035066201213</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>2098</v>
       </c>
-      <c r="D22" s="4">
-        <f>C22/$C$3*$C$26</f>
-        <v>6.970099667774087</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5981067396295243</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1074,67 +1110,51 @@
       <c r="C23">
         <v>1934</v>
       </c>
-      <c r="D23" s="4">
-        <f>C23/$C$3*$C$26</f>
-        <v>6.4252491694352152</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0823348114601998</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>1702</v>
       </c>
-      <c r="D24" s="4">
-        <f>C24/$C$3*$C$26</f>
-        <v>5.6544850498338874</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="3">
-        <v>40</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3">
-        <v>35</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3">
-        <v>30</v>
-      </c>
-      <c r="I28" s="4"/>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3527062301474979</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>31797</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -566,7 +566,7 @@
       <c r="C3">
         <v>12040</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <f>C3/$C$26%</f>
         <v>37.865207409504038</v>
       </c>
@@ -580,7 +580,7 @@
       <c r="I3" s="5">
         <v>10802</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>I3/$C$26%</f>
         <v>33.971758341981946</v>
       </c>
@@ -596,7 +596,7 @@
       <c r="C4">
         <v>11302</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D24" si="0">C4/$C$26%</f>
         <v>35.544233732742079</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="I4" s="5">
         <v>7242</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J13" si="1">I4/$C$26%</f>
         <v>22.775733559769787</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="C5">
         <v>8302</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>26.109381388181273</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="I5" s="5">
         <v>6302</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>19.819479825140736</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="C6">
         <v>6962</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>21.895147340944114</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="I6" s="5">
         <v>4818</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>15.152372865364656</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="C7">
         <v>6796</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>21.373085511211748</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="I7" s="5">
         <v>4542</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>14.284366449665061</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="C8">
         <v>6354</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>19.98301726577979</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="I8" s="5">
         <v>3546</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>11.151995471270874</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="C9">
         <v>5072</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>15.951190363870804</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="I9" s="5">
         <v>3514</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>11.051357046262225</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="C10">
         <v>4740</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>14.907066704406075</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="I10" s="5">
         <v>3186</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>10.019813189923577</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="C11">
         <v>4216</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>13.259112494889454</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="I11" s="5">
         <v>2598</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>8.1705821303896595</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="C12">
         <v>3964</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>12.466584897946346</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="I12" s="5">
         <v>2438</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>7.6673900053464159</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="C13">
         <v>3810</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>11.982262477592224</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="I13" s="5">
         <v>2242</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>7.0509796521684427</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="C14">
         <v>3644</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>11.46020064785986</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="C15">
         <v>3126</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>9.8311161430323608</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="C16">
         <v>3092</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>9.7241878164606721</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="C17">
         <v>3052</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>9.5983897851998616</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="I17" s="5">
         <v>9552</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <f t="shared" ref="J17:J20" si="2">I17/$C$26%</f>
         <v>30.040569865081608</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="C18">
         <v>2736</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>8.6045853382394561</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="I18" s="5">
         <v>6420</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="3">
         <f t="shared" si="2"/>
         <v>20.190584017360127</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C19">
         <v>2500</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>7.8623769538006725</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="I19" s="5">
         <v>4170</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
         <v>13.114444758939522</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="C20">
         <v>2196</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>6.9063119162185105</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="I20" s="5">
         <v>1473</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <f t="shared" si="2"/>
         <v>4.632512501179356</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="C21">
         <v>2132</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>6.705035066201213</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="C22">
         <v>2098</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>6.5981067396295243</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="C23">
         <v>1934</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>6.0823348114601998</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="C24">
         <v>1702</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>5.3527062301474979</v>
       </c>

--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Haas F1 Team</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Nico Rosberg</t>
-  </si>
-  <si>
     <t>Lewis Hamilton</t>
   </si>
   <si>
@@ -60,33 +57,15 @@
     <t>Fernando Alonso</t>
   </si>
   <si>
-    <t>Felipe Massa</t>
-  </si>
-  <si>
     <t>Carlos Sainz</t>
   </si>
   <si>
     <t>Romain Grosjean</t>
   </si>
   <si>
-    <t>Daniil Kvyat</t>
-  </si>
-  <si>
-    <t>Jenson Button</t>
-  </si>
-  <si>
     <t>Kevin Magnussen</t>
   </si>
   <si>
-    <t>Felipe Nasr</t>
-  </si>
-  <si>
-    <t>Pascal Wehrlein</t>
-  </si>
-  <si>
-    <t>Jolyon Palmer</t>
-  </si>
-  <si>
     <t>Drivers</t>
   </si>
   <si>
@@ -102,15 +81,9 @@
     <t>Engines</t>
   </si>
   <si>
-    <t>Esteban Gutierrez</t>
-  </si>
-  <si>
     <t>Marcus Ericsson</t>
   </si>
   <si>
-    <t>Rio Haryanto</t>
-  </si>
-  <si>
     <t>Cars</t>
   </si>
   <si>
@@ -138,13 +111,34 @@
     <t>Renault</t>
   </si>
   <si>
-    <t>Manor Marussia</t>
-  </si>
-  <si>
     <t>Honda</t>
   </si>
   <si>
     <t>Best Theoretical Team Last Year Points</t>
+  </si>
+  <si>
+    <t>Esteban Ocon</t>
+  </si>
+  <si>
+    <t>Lance Stroll</t>
+  </si>
+  <si>
+    <t>Sergey Sirotkin</t>
+  </si>
+  <si>
+    <t>Stoffel Vandoorne</t>
+  </si>
+  <si>
+    <t>Pierre Gasly</t>
+  </si>
+  <si>
+    <t>Brendon Hartley</t>
+  </si>
+  <si>
+    <t>Charles Leclerc</t>
+  </si>
+  <si>
+    <t>Driver Bonus</t>
   </si>
 </sst>
 </file>
@@ -198,11 +192,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +501,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,43 +511,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -564,87 +561,96 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>12040</v>
+        <v>11166</v>
       </c>
       <c r="D3" s="3">
         <f>C3/$C$26%</f>
-        <v>37.865207409504038</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>35.566172957477306</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3-2</f>
+        <v>33.566172957477306</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5">
-        <v>10802</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9576</v>
       </c>
       <c r="J3" s="3">
         <f>I3/$C$26%</f>
-        <v>33.971758341981946</v>
-      </c>
-      <c r="K3" s="5"/>
+        <v>30.501672240802677</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>11302</v>
+        <v>9388</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D24" si="0">C4/$C$26%</f>
-        <v>35.544233732742079</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>29.902850772415992</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E22" si="1">D4-2</f>
+        <v>27.902850772415992</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5">
-        <v>7242</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5396</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J13" si="1">I4/$C$26%</f>
-        <v>22.775733559769787</v>
-      </c>
-      <c r="K4" s="5"/>
+        <f t="shared" ref="J4:J13" si="2">I4/$C$26%</f>
+        <v>17.187450230928491</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>8302</v>
+        <v>6098</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>26.109381388181273</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>19.423475075648991</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>17.423475075648991</v>
+      </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5">
-        <v>6302</v>
+        <v>25</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7974</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>19.819479825140736</v>
-      </c>
-      <c r="K5" s="5"/>
+        <f t="shared" si="2"/>
+        <v>25.398948877209747</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -654,253 +660,269 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6962</v>
+        <v>5696</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>21.895147340944114</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>18.143016403885969</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>16.143016403885969</v>
+      </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4818</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4810</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>15.152372865364656</v>
-      </c>
-      <c r="K6" s="5"/>
+        <f t="shared" si="2"/>
+        <v>15.320910973084887</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6796</v>
+        <v>9884</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>21.373085511211748</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>31.482720178372354</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>29.482720178372354</v>
+      </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4542</v>
+        <v>27</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3624</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>14.284366449665061</v>
-      </c>
-      <c r="K7" s="5"/>
+        <f t="shared" si="2"/>
+        <v>11.543239369326326</v>
+      </c>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6354</v>
+        <v>7088</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>19.98301726577979</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>22.576843446408663</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>20.576843446408663</v>
+      </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="5">
-        <v>3546</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2716</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>11.151995471270874</v>
-      </c>
-      <c r="K8" s="5"/>
+        <f t="shared" si="2"/>
+        <v>8.6510590858416947</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5072</v>
+        <v>4674</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>15.951190363870804</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>14.887720974677498</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>12.887720974677498</v>
+      </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3514</v>
+        <v>29</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2964</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>11.051357046262225</v>
-      </c>
-      <c r="K9" s="5"/>
+        <f t="shared" si="2"/>
+        <v>9.4409937888198758</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>4740</v>
+        <v>4534</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>14.907066704406075</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>14.441790093964007</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>12.441790093964007</v>
+      </c>
       <c r="G10">
         <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
-        <v>3186</v>
+      <c r="I10" s="4">
+        <v>3242</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>10.019813189923577</v>
-      </c>
-      <c r="K10" s="5"/>
+        <f t="shared" si="2"/>
+        <v>10.326485109093806</v>
+      </c>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>4216</v>
+        <v>3148</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>13.259112494889454</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>10.027074374900462</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0270743749004616</v>
+      </c>
       <c r="G11">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2598</v>
+        <v>30</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3070</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>8.1705821303896595</v>
-      </c>
-      <c r="K11" s="5"/>
+        <f t="shared" si="2"/>
+        <v>9.7786271699315179</v>
+      </c>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>3964</v>
+        <v>3120</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>12.466584897946346</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>9.937888198757765</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>7.937888198757765</v>
+      </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
-        <v>2438</v>
+      <c r="I12" s="4">
+        <v>2410</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>7.6673900053464159</v>
-      </c>
-      <c r="K12" s="5"/>
+        <f t="shared" si="2"/>
+        <v>7.676381589425068</v>
+      </c>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>3810</v>
+        <v>2676</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>11.982262477592224</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="5">
-        <v>2242</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>7.0509796521684427</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>8.5236502627806985</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5236502627806985</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>3644</v>
+        <v>2784</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>11.46020064785986</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>8.8676540850453893</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8676540850453893</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -908,16 +930,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>3126</v>
+        <v>2900</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>9.8311161430323608</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>9.2371396719222805</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2371396719222805</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,229 +950,226 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>3092</v>
+        <v>2900</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>9.7241878164606721</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <v>9.2371396719222805</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2371396719222805</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3052</v>
+        <v>3266</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>9.5983897851998616</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>10.402930402930403</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4029304029304033</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5">
-        <v>9552</v>
+        <v>23</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7755</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:J20" si="2">I17/$C$26%</f>
-        <v>30.040569865081608</v>
-      </c>
-      <c r="K17" s="5"/>
+        <f t="shared" ref="J17:J20" si="3">I17/$C$26%</f>
+        <v>24.701385570950791</v>
+      </c>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>2736</v>
+        <v>2802</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>8.6045853382394561</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>8.9249880554228387</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>6.9249880554228387</v>
+      </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="5">
-        <v>6420</v>
+        <v>25</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5813</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="2"/>
-        <v>20.190584017360127</v>
-      </c>
-      <c r="K18" s="5"/>
+        <f t="shared" si="3"/>
+        <v>18.515687211339387</v>
+      </c>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>3370</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>7.8623769538006725</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>10.734193342888995</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>8.7341933428889948</v>
+      </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="5">
-        <v>4170</v>
+        <v>30</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5090</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="2"/>
-        <v>13.114444758939522</v>
-      </c>
-      <c r="K19" s="5"/>
+        <f t="shared" si="3"/>
+        <v>16.212772734511866</v>
+      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>2196</v>
+        <v>3300</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>6.9063119162185105</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>10.511227902532251</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5112279025322515</v>
+      </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1473</v>
+        <v>31</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1183</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="2"/>
-        <v>4.632512501179356</v>
-      </c>
-      <c r="K20" s="5"/>
+        <f t="shared" si="3"/>
+        <v>3.7681159420289858</v>
+      </c>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>2132</v>
+        <v>1978</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>6.705035066201213</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>6.3003663003663002</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3003663003663002</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C22">
-        <v>2098</v>
+        <v>2388</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>6.5981067396295243</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>7.6063067367415194</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6063067367415194</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>1934</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0823348114601998</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1702</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>5.3527062301474979</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>31797</v>
+        <v>31395</v>
       </c>
     </row>
   </sheetData>

--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Haas F1 Team</t>
   </si>
@@ -138,7 +138,13 @@
     <t>Charles Leclerc</t>
   </si>
   <si>
-    <t>Driver Bonus</t>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Driver Risk</t>
+  </si>
+  <si>
+    <t>Car Risk</t>
   </si>
 </sst>
 </file>
@@ -187,9 +193,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,6 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,62 +502,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -563,30 +563,26 @@
       <c r="C3">
         <v>11166</v>
       </c>
-      <c r="D3" s="3">
-        <f>C3/$C$26%</f>
-        <v>35.566172957477306</v>
-      </c>
-      <c r="E3" s="4">
-        <f>D3-2</f>
-        <v>33.566172957477306</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="2">
+        <f>(C3/$C$26%)-$H$24</f>
+        <v>32.566172957477306</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="3">
         <v>9576</v>
       </c>
-      <c r="J3" s="3">
-        <f>I3/$C$26%</f>
-        <v>30.501672240802677</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f>(H3/$C$26%)-$H$25</f>
+        <v>29.501672240802677</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -596,30 +592,26 @@
       <c r="C4">
         <v>9388</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D24" si="0">C4/$C$26%</f>
-        <v>29.902850772415992</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E22" si="1">D4-2</f>
-        <v>27.902850772415992</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D22" si="0">(C4/$C$26%)-$H$24</f>
+        <v>26.902850772415992</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="3">
         <v>5396</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J13" si="2">I4/$C$26%</f>
-        <v>17.187450230928491</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I12" si="1">(H4/$C$26%)-$H$25</f>
+        <v>16.187450230928491</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -629,30 +621,26 @@
       <c r="C5">
         <v>6098</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>19.423475075648991</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.423475075648991</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7974</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>17.423475075648991</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7974</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>25.398948877209747</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24.398948877209747</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -662,30 +650,26 @@
       <c r="C6">
         <v>5696</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>18.143016403885969</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>15.143016403885969</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4810</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>16.143016403885969</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4810</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>15.320910973084887</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14.320910973084887</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -695,30 +679,26 @@
       <c r="C7">
         <v>9884</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>31.482720178372354</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>28.482720178372354</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3624</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>29.482720178372354</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3624</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>11.543239369326326</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10.543239369326326</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -728,30 +708,26 @@
       <c r="C8">
         <v>7088</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>22.576843446408663</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>19.576843446408663</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2716</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>20.576843446408663</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2716</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>8.6510590858416947</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.6510590858416947</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -761,30 +737,26 @@
       <c r="C9">
         <v>4674</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>14.887720974677498</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>11.887720974677498</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2964</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>12.887720974677498</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2964</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>9.4409937888198758</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.4409937888198758</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -794,30 +766,26 @@
       <c r="C10">
         <v>4534</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>14.441790093964007</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>11.441790093964007</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3242</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>12.441790093964007</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3242</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>10.326485109093806</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.3264851090938059</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -827,30 +795,26 @@
       <c r="C11">
         <v>3148</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>10.027074374900462</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0270743749004616</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3070</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>8.0270743749004616</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3070</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>9.7786271699315179</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.7786271699315179</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -860,30 +824,26 @@
       <c r="C12">
         <v>3120</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>9.937888198757765</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.937888198757765</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2410</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>7.937888198757765</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2410</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>7.676381589425068</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.676381589425068</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -893,19 +853,15 @@
       <c r="C13">
         <v>2676</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>8.5236502627806985</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>6.5236502627806985</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5236502627806985</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -915,17 +871,13 @@
       <c r="C14">
         <v>2784</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>8.8676540850453893</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8676540850453893</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8676540850453893</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -935,17 +887,13 @@
       <c r="C15">
         <v>2900</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>9.2371396719222805</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2371396719222805</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2371396719222805</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -955,22 +903,27 @@
       <c r="C16">
         <v>2900</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>9.2371396719222805</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2371396719222805</v>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2371396719222805</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -980,30 +933,28 @@
       <c r="C17">
         <v>3266</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>10.402930402930403</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4029304029304033</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4029304029304033</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="4">
+      <c r="H17" s="3">
         <v>7755</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17:J20" si="3">I17/$C$26%</f>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f>(H17/$C$26%)-I17</f>
         <v>24.701385570950791</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1013,30 +964,28 @@
       <c r="C18">
         <v>2802</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>8.9249880554228387</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>6.9249880554228387</v>
-      </c>
-      <c r="G18">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9249880554228387</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="4">
+      <c r="H18" s="3">
         <v>5813</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="3"/>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ref="J18:J20" si="2">(H18/$C$26%)-I18</f>
         <v>18.515687211339387</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1046,30 +995,28 @@
       <c r="C19">
         <v>3370</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>10.734193342888995</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>8.7341933428889948</v>
-      </c>
-      <c r="G19">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7341933428889948</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="4">
+      <c r="H19" s="3">
         <v>5090</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
         <v>16.212772734511866</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1079,30 +1026,28 @@
       <c r="C20">
         <v>3300</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>10.511227902532251</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>8.5112279025322515</v>
-      </c>
-      <c r="G20">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5112279025322515</v>
+      </c>
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="4">
+      <c r="H20" s="3">
         <v>1183</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" si="3"/>
-        <v>3.7681159420289858</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7681159420289858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1112,19 +1057,15 @@
       <c r="C21">
         <v>1978</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>6.3003663003663002</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
-        <v>4.3003663003663002</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3003663003663002</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1134,49 +1075,53 @@
       <c r="C22">
         <v>2388</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6063067367415194</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
-        <v>5.6063067367415194</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6063067367415194</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>31395</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -197,10 +197,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,17 +515,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -910,13 +910,13 @@
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J16" t="s">

--- a/Artifacts/component_valuer.xlsx
+++ b/Artifacts/component_valuer.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\fantasyf1\Artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007069BF-A975-4FC2-820F-150C5B18D0A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="16140" windowHeight="9345"/>
+    <workbookView xWindow="1875" yWindow="3105" windowWidth="14430" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Haas F1 Team</t>
   </si>
   <si>
-    <t>Sauber</t>
-  </si>
-  <si>
     <t>Points</t>
   </si>
   <si>
@@ -54,9 +65,6 @@
     <t>Nico Hulkenberg</t>
   </si>
   <si>
-    <t>Fernando Alonso</t>
-  </si>
-  <si>
     <t>Carlos Sainz</t>
   </si>
   <si>
@@ -81,9 +89,6 @@
     <t>Engines</t>
   </si>
   <si>
-    <t>Marcus Ericsson</t>
-  </si>
-  <si>
     <t>Cars</t>
   </si>
   <si>
@@ -96,9 +101,6 @@
     <t>Ferrari</t>
   </si>
   <si>
-    <t>Force India</t>
-  </si>
-  <si>
     <t>Williams</t>
   </si>
   <si>
@@ -117,24 +119,12 @@
     <t>Best Theoretical Team Last Year Points</t>
   </si>
   <si>
-    <t>Esteban Ocon</t>
-  </si>
-  <si>
     <t>Lance Stroll</t>
   </si>
   <si>
-    <t>Sergey Sirotkin</t>
-  </si>
-  <si>
-    <t>Stoffel Vandoorne</t>
-  </si>
-  <si>
     <t>Pierre Gasly</t>
   </si>
   <si>
-    <t>Brendon Hartley</t>
-  </si>
-  <si>
     <t>Charles Leclerc</t>
   </si>
   <si>
@@ -145,16 +135,61 @@
   </si>
   <si>
     <t>Car Risk</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Racing Point</t>
+  </si>
+  <si>
+    <t>George Russell</t>
+  </si>
+  <si>
+    <t>Robert Kubica</t>
+  </si>
+  <si>
+    <t>Lando Norris</t>
+  </si>
+  <si>
+    <t>Alexander Albon</t>
+  </si>
+  <si>
+    <t>Daniil Kvyat</t>
+  </si>
+  <si>
+    <t>Antonio Giovinazzi</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CLec</t>
+  </si>
+  <si>
+    <t>Eoc</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +204,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,16 +232,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,6 +250,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,42 +592,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -558,27 +635,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>11166</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>11970</v>
       </c>
       <c r="D3" s="2">
         <f>(C3/$C$26%)-$H$24</f>
-        <v>32.566172957477306</v>
+        <v>33.892937414922919</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3">
-        <v>9576</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9620</v>
       </c>
       <c r="I3" s="2">
         <f>(H3/$C$26%)-$H$25</f>
-        <v>29.501672240802677</v>
+        <v>29.453638924942229</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -587,27 +664,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>9388</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8614</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D22" si="0">(C4/$C$26%)-$H$24</f>
-        <v>26.902850772415992</v>
+        <v>23.268986039444112</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5396</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6060</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ref="I4:I12" si="1">(H4/$C$26%)-$H$25</f>
-        <v>16.187450230928491</v>
+        <v>18.183893127354459</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -618,25 +695,25 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>6098</v>
+      <c r="C5" s="5">
+        <v>10168</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>16.423475075648991</v>
+        <v>28.188420019627088</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3">
-        <v>7974</v>
+        <v>8574</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>24.398948877209747</v>
+        <v>26.142359682167843</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -645,27 +722,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>5696</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7956</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>15.143016403885969</v>
+        <v>21.18598246224952</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4810</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4232</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>14.320910973084887</v>
+        <v>12.397068599829055</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -674,27 +754,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>9884</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5648</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>28.482720178372354</v>
+        <v>13.87964164740891</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3624</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2964</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>10.543239369326326</v>
+        <v>8.3830130741713891</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -703,27 +783,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>7088</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7444</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>19.576843446408663</v>
+        <v>19.5651650891133</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2716</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3238</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>7.6510590858416947</v>
+        <v>9.2504036215138186</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -732,27 +812,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>4674</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4190</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>11.887720974677498</v>
+        <v>9.2641109246889748</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2964</v>
+        <v>25</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3028</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>8.4409937888198758</v>
+        <v>8.5856152458134165</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -761,14 +841,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>4534</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3896</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>11.441790093964007</v>
+        <v>8.3334071987084108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -776,12 +859,12 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>3242</v>
+      <c r="H10" s="5">
+        <v>3996</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>9.3264851090938059</v>
+        <v>11.64997309189908</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -790,27 +873,30 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>3148</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2620</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>7.0270743749004616</v>
+        <v>4.2940264015954916</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3070</v>
+        <v>26</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3956</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>8.7786271699315179</v>
+        <v>11.523346734622812</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -819,27 +905,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>3120</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2466</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>6.937888198757765</v>
+        <v>3.8065149260818645</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2410</v>
+        <v>35</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3294</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>6.676381589425068</v>
+        <v>9.4276805217005926</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -848,14 +934,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>2676</v>
+        <v>3126</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>5.5236502627806985</v>
+        <v>5.8958498211402706</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
@@ -866,14 +952,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>2784</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3052</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>5.8676540850453893</v>
+        <v>5.6615910601791768</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -882,14 +968,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>2900</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2536</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>6.2371396719222805</v>
+        <v>4.0281110513153315</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -898,29 +987,29 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>2900</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3284</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>6.2371396719222805</v>
+        <v>6.3960239323815262</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>40</v>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,30 +1017,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>3266</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3414</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>7.4029304029304033</v>
+        <v>6.807559593529394</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3">
-        <v>7755</v>
+        <v>7158</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="2">
         <f>(H17/$C$26%)-I17</f>
-        <v>24.701385570950791</v>
+        <v>22.659786634587991</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -959,30 +1048,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>2802</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4186</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>5.9249880554228387</v>
+        <v>9.2514482889613472</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3">
-        <v>5813</v>
+        <v>6857</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ref="J18:J20" si="2">(H18/$C$26%)-I18</f>
-        <v>18.515687211339387</v>
+        <v>21.706923296084081</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -990,30 +1079,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>3370</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3632</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>7.7341933428889948</v>
+        <v>7.4976732406850495</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" s="3">
-        <v>5090</v>
+        <f>(5752/3)*2</f>
+        <v>3834.6666666666665</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>16.212772734511866</v>
+        <v>12.139246784218136</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1021,30 +1111,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>3300</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4220</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>7.5112279025322515</v>
+        <v>9.3590806926461756</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H20" s="3">
-        <v>1183</v>
+        <f>1239*2</f>
+        <v>2478</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>2.7681159420289858</v>
+        <v>7.8445028332647446</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,14 +1146,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1978</v>
+        <v>3272</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>3.3003663003663002</v>
+        <v>6.3580360251986452</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1070,14 +1167,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22">
-        <v>2388</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3002</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>4.6063067367415194</v>
+        <v>5.5033081135838433</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1085,25 +1185,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1112,10 +1209,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
-        <v>31395</v>
+        <v>31589</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1141,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
